--- a/tables/resultados_distributivos_com_arrecadacao.xlsx
+++ b/tables/resultados_distributivos_com_arrecadacao.xlsx
@@ -375,7 +375,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Top_9</t>
+          <t>Top_10</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -401,19 +401,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.6174491341017662</v>
+        <v>0.6174491341017628</v>
       </c>
       <c r="C2">
-        <v>0.1408914272615984</v>
+        <v>0.1408914272615971</v>
       </c>
       <c r="D2">
-        <v>0.5489325840217233</v>
+        <v>0.5660957309895703</v>
       </c>
       <c r="E2">
-        <v>0.3163143350756313</v>
+        <v>0.3163143350756296</v>
       </c>
       <c r="F2">
-        <v>370.9051059178489</v>
+        <v>370.9051059178454</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -426,22 +426,22 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.6165874294821226</v>
+        <v>0.6162571990303457</v>
       </c>
       <c r="C3">
-        <v>0.1406546199300563</v>
+        <v>0.1408192576692769</v>
       </c>
       <c r="D3">
-        <v>0.5467552490367972</v>
+        <v>0.5640953737327782</v>
       </c>
       <c r="E3">
-        <v>0.3097900020492682</v>
+        <v>0.3098311902079652</v>
       </c>
       <c r="F3">
-        <v>359.9355636367956</v>
+        <v>367.565927956492</v>
       </c>
       <c r="G3">
-        <v>-10.96954228105329</v>
+        <v>-3.339177961353357</v>
       </c>
     </row>
     <row r="4">
@@ -451,22 +451,22 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.6150049538993652</v>
+        <v>0.6147945394096699</v>
       </c>
       <c r="C4">
-        <v>0.1412406616305552</v>
+        <v>0.1413610485529083</v>
       </c>
       <c r="D4">
-        <v>0.5448667911622621</v>
+        <v>0.5624182653844367</v>
       </c>
       <c r="E4">
-        <v>0.3069142213525412</v>
+        <v>0.3071758206548156</v>
       </c>
       <c r="F4">
-        <v>386.8488952981471</v>
+        <v>392.3839477842254</v>
       </c>
       <c r="G4">
-        <v>15.9437893802982</v>
+        <v>21.47884186638004</v>
       </c>
     </row>
   </sheetData>

--- a/tables/resultados_distributivos_com_arrecadacao.xlsx
+++ b/tables/resultados_distributivos_com_arrecadacao.xlsx
@@ -407,10 +407,10 @@
         <v>0.1408914272615971</v>
       </c>
       <c r="D2">
-        <v>0.5660957309895703</v>
+        <v>0.5489325840217185</v>
       </c>
       <c r="E2">
-        <v>0.3163143350756296</v>
+        <v>0.2484647400409127</v>
       </c>
       <c r="F2">
         <v>370.9051059178454</v>
@@ -432,10 +432,10 @@
         <v>0.1408192576692769</v>
       </c>
       <c r="D3">
-        <v>0.5640953737327782</v>
+        <v>0.5462247212009397</v>
       </c>
       <c r="E3">
-        <v>0.3098311902079652</v>
+        <v>0.2420163501452704</v>
       </c>
       <c r="F3">
         <v>367.565927956492</v>
@@ -457,10 +457,10 @@
         <v>0.1413610485529083</v>
       </c>
       <c r="D4">
-        <v>0.5624182653844367</v>
+        <v>0.5444788569396176</v>
       </c>
       <c r="E4">
-        <v>0.3071758206548156</v>
+        <v>0.2390291355613186</v>
       </c>
       <c r="F4">
         <v>392.3839477842254</v>

--- a/tables/resultados_distributivos_com_arrecadacao.xlsx
+++ b/tables/resultados_distributivos_com_arrecadacao.xlsx
@@ -401,19 +401,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.6174491341017628</v>
+        <v>0.6305335119698572</v>
       </c>
       <c r="C2">
-        <v>0.1408914272615971</v>
+        <v>0.1351436301569832</v>
       </c>
       <c r="D2">
-        <v>0.5489325840217185</v>
+        <v>0.5800723306279203</v>
       </c>
       <c r="E2">
-        <v>0.2484647400409127</v>
+        <v>0.330484099728426</v>
       </c>
       <c r="F2">
-        <v>370.9051059178454</v>
+        <v>352.8774543083251</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -426,22 +426,22 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.6162571990303457</v>
+        <v>0.6313367221965587</v>
       </c>
       <c r="C3">
-        <v>0.1408192576692769</v>
+        <v>0.13443602830935</v>
       </c>
       <c r="D3">
-        <v>0.5462247212009397</v>
+        <v>0.5808776223237405</v>
       </c>
       <c r="E3">
-        <v>0.2420163501452704</v>
+        <v>0.3277835981368859</v>
       </c>
       <c r="F3">
-        <v>367.565927956492</v>
+        <v>317.1246891006634</v>
       </c>
       <c r="G3">
-        <v>-3.339177961353357</v>
+        <v>-35.75276520766164</v>
       </c>
     </row>
     <row r="4">
@@ -451,22 +451,22 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.6147945394096699</v>
+        <v>0.6313367221965587</v>
       </c>
       <c r="C4">
-        <v>0.1413610485529083</v>
+        <v>0.13443602830935</v>
       </c>
       <c r="D4">
-        <v>0.5444788569396176</v>
+        <v>0.5808776223237405</v>
       </c>
       <c r="E4">
-        <v>0.2390291355613186</v>
+        <v>0.3277835981368859</v>
       </c>
       <c r="F4">
-        <v>392.3839477842254</v>
+        <v>385.8038789611176</v>
       </c>
       <c r="G4">
-        <v>21.47884186638004</v>
+        <v>32.92642465279249</v>
       </c>
     </row>
   </sheetData>

--- a/tables/resultados_distributivos_com_arrecadacao.xlsx
+++ b/tables/resultados_distributivos_com_arrecadacao.xlsx
@@ -401,19 +401,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.6305335119698572</v>
+        <v>0.6195539201671987</v>
       </c>
       <c r="C2">
-        <v>0.1351436301569832</v>
+        <v>0.1396814823355647</v>
       </c>
       <c r="D2">
-        <v>0.5800723306279203</v>
+        <v>0.5504218036392498</v>
       </c>
       <c r="E2">
-        <v>0.330484099728426</v>
+        <v>0.2474934668802131</v>
       </c>
       <c r="F2">
-        <v>352.8774543083251</v>
+        <v>314.466778929297</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -426,22 +426,22 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.6313367221965587</v>
+        <v>0.6173387331698661</v>
       </c>
       <c r="C3">
-        <v>0.13443602830935</v>
+        <v>0.140375533103393</v>
       </c>
       <c r="D3">
-        <v>0.5808776223237405</v>
+        <v>0.5476545770454402</v>
       </c>
       <c r="E3">
-        <v>0.3277835981368859</v>
+        <v>0.2419947385555356</v>
       </c>
       <c r="F3">
-        <v>317.1246891006634</v>
+        <v>346.9600114092114</v>
       </c>
       <c r="G3">
-        <v>-35.75276520766164</v>
+        <v>32.49323247991435</v>
       </c>
     </row>
     <row r="4">
@@ -451,22 +451,22 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.6313367221965587</v>
+        <v>0.616592356188896</v>
       </c>
       <c r="C4">
-        <v>0.13443602830935</v>
+        <v>0.1406526291330148</v>
       </c>
       <c r="D4">
-        <v>0.5808776223237405</v>
+        <v>0.5467616641713284</v>
       </c>
       <c r="E4">
-        <v>0.3277835981368859</v>
+        <v>0.2403697917822596</v>
       </c>
       <c r="F4">
-        <v>385.8038789611176</v>
+        <v>360.024117147753</v>
       </c>
       <c r="G4">
-        <v>32.92642465279249</v>
+        <v>45.55733821845598</v>
       </c>
     </row>
   </sheetData>

--- a/tables/resultados_distributivos_com_arrecadacao.xlsx
+++ b/tables/resultados_distributivos_com_arrecadacao.xlsx
@@ -401,19 +401,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.6195539201671987</v>
+        <v>0.6200835989683386</v>
       </c>
       <c r="C2">
-        <v>0.1396814823355647</v>
+        <v>0.1393566213130238</v>
       </c>
       <c r="D2">
-        <v>0.5504218036392498</v>
+        <v>0.5510331394514802</v>
       </c>
       <c r="E2">
-        <v>0.2474934668802131</v>
+        <v>0.247079201554608</v>
       </c>
       <c r="F2">
-        <v>314.466778929297</v>
+        <v>299.1466261603687</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -426,22 +426,22 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.6173387331698661</v>
+        <v>0.617708066649426</v>
       </c>
       <c r="C3">
-        <v>0.140375533103393</v>
+        <v>0.140169244854642</v>
       </c>
       <c r="D3">
-        <v>0.5476545770454402</v>
+        <v>0.548308748648395</v>
       </c>
       <c r="E3">
-        <v>0.2419947385555356</v>
+        <v>0.2417126824104117</v>
       </c>
       <c r="F3">
-        <v>346.9600114092114</v>
+        <v>337.3358639310761</v>
       </c>
       <c r="G3">
-        <v>32.49323247991435</v>
+        <v>38.18923777070739</v>
       </c>
     </row>
     <row r="4">
@@ -451,22 +451,22 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.616592356188896</v>
+        <v>0.6170084104030436</v>
       </c>
       <c r="C4">
-        <v>0.1406526291330148</v>
+        <v>0.1404290002923165</v>
       </c>
       <c r="D4">
-        <v>0.5467616641713284</v>
+        <v>0.5474716944229102</v>
       </c>
       <c r="E4">
-        <v>0.2403697917822596</v>
+        <v>0.2403055863644433</v>
       </c>
       <c r="F4">
-        <v>360.024117147753</v>
+        <v>349.5950229090772</v>
       </c>
       <c r="G4">
-        <v>45.55733821845598</v>
+        <v>50.44839674870849</v>
       </c>
     </row>
   </sheetData>

--- a/tables/resultados_distributivos_com_arrecadacao.xlsx
+++ b/tables/resultados_distributivos_com_arrecadacao.xlsx
@@ -401,19 +401,19 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.6200835989683386</v>
+        <v>0.6185935638155903</v>
       </c>
       <c r="C2">
-        <v>0.1393566213130238</v>
+        <v>0.1401127577307753</v>
       </c>
       <c r="D2">
-        <v>0.5510331394514802</v>
+        <v>0.5492320602264944</v>
       </c>
       <c r="E2">
-        <v>0.247079201554608</v>
+        <v>0.2478619132032327</v>
       </c>
       <c r="F2">
-        <v>299.1466261603687</v>
+        <v>334.6955778851641</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -426,22 +426,22 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.617708066649426</v>
+        <v>0.6165899422660595</v>
       </c>
       <c r="C3">
-        <v>0.140169244854642</v>
+        <v>0.1406696751015247</v>
       </c>
       <c r="D3">
-        <v>0.548308748648395</v>
+        <v>0.5466961269590717</v>
       </c>
       <c r="E3">
-        <v>0.2417126824104117</v>
+        <v>0.2421434918316321</v>
       </c>
       <c r="F3">
-        <v>337.3358639310761</v>
+        <v>360.6340583975178</v>
       </c>
       <c r="G3">
-        <v>38.18923777070739</v>
+        <v>25.93848051235375</v>
       </c>
     </row>
     <row r="4">
@@ -451,22 +451,22 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.6170084104030436</v>
+        <v>0.6152994338053641</v>
       </c>
       <c r="C4">
-        <v>0.1404290002923165</v>
+        <v>0.1411481392112925</v>
       </c>
       <c r="D4">
-        <v>0.5474716944229102</v>
+        <v>0.5451542904977854</v>
       </c>
       <c r="E4">
-        <v>0.2403055863644433</v>
+        <v>0.2395228084753867</v>
       </c>
       <c r="F4">
-        <v>349.5950229090772</v>
+        <v>382.5895231548401</v>
       </c>
       <c r="G4">
-        <v>50.44839674870849</v>
+        <v>47.89394526967601</v>
       </c>
     </row>
   </sheetData>
